--- a/natmiOut/OldD4/LR-pairs_lrc2p/Col4a5-Cd93.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Col4a5-Cd93.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Cd93</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>M1</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>4.30900633936153</v>
+        <v>0.1969683333333333</v>
       </c>
       <c r="H2">
-        <v>4.30900633936153</v>
+        <v>0.590905</v>
       </c>
       <c r="I2">
-        <v>0.6655825432895573</v>
+        <v>0.02657338015617136</v>
       </c>
       <c r="J2">
-        <v>0.6655825432895573</v>
+        <v>0.02956785610438461</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>169.690907399947</v>
+        <v>196.8487906666667</v>
       </c>
       <c r="N2">
-        <v>169.690907399947</v>
+        <v>590.546372</v>
       </c>
       <c r="O2">
-        <v>0.5547945231140841</v>
+        <v>0.5898085209504824</v>
       </c>
       <c r="P2">
-        <v>0.5547945231140841</v>
+        <v>0.5923834015035012</v>
       </c>
       <c r="Q2">
-        <v>731.199195718382</v>
+        <v>38.77297821629556</v>
       </c>
       <c r="R2">
-        <v>731.199195718382</v>
+        <v>348.95680394666</v>
       </c>
       <c r="S2">
-        <v>0.3692615496973892</v>
+        <v>0.01567320604656633</v>
       </c>
       <c r="T2">
-        <v>0.3692615496973892</v>
+        <v>0.01751550717428142</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>4.30900633936153</v>
+        <v>0.1969683333333333</v>
       </c>
       <c r="H3">
-        <v>4.30900633936153</v>
+        <v>0.590905</v>
       </c>
       <c r="I3">
-        <v>0.6655825432895573</v>
+        <v>0.02657338015617136</v>
       </c>
       <c r="J3">
-        <v>0.6655825432895573</v>
+        <v>0.02956785610438461</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>54.6034433841246</v>
+        <v>0.2899643333333333</v>
       </c>
       <c r="N3">
-        <v>54.6034433841246</v>
+        <v>0.869893</v>
       </c>
       <c r="O3">
-        <v>0.1785227729455335</v>
+        <v>0.0008688061226717315</v>
       </c>
       <c r="P3">
-        <v>0.1785227729455335</v>
+        <v>0.0008725990010553907</v>
       </c>
       <c r="Q3">
-        <v>235.2865836931613</v>
+        <v>0.05711379146277777</v>
       </c>
       <c r="R3">
-        <v>235.2865836931613</v>
+        <v>0.514024123165</v>
       </c>
       <c r="S3">
-        <v>0.1188216412521924</v>
+        <v>2.308711537976517E-05</v>
       </c>
       <c r="T3">
-        <v>0.1188216412521924</v>
+        <v>2.580088170003554E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>4.30900633936153</v>
+        <v>0.1969683333333333</v>
       </c>
       <c r="H4">
-        <v>4.30900633936153</v>
+        <v>0.590905</v>
       </c>
       <c r="I4">
-        <v>0.6655825432895573</v>
+        <v>0.02657338015617136</v>
       </c>
       <c r="J4">
-        <v>0.6655825432895573</v>
+        <v>0.02956785610438461</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>77.3133188485382</v>
+        <v>54.63182799999999</v>
       </c>
       <c r="N4">
-        <v>77.3133188485382</v>
+        <v>163.895484</v>
       </c>
       <c r="O4">
-        <v>0.2527713860345311</v>
+        <v>0.1636907067621498</v>
       </c>
       <c r="P4">
-        <v>0.2527713860345311</v>
+        <v>0.1644053183735123</v>
       </c>
       <c r="Q4">
-        <v>333.1435810354304</v>
+        <v>10.76074010811333</v>
       </c>
       <c r="R4">
-        <v>333.1435810354304</v>
+        <v>96.84666097301999</v>
       </c>
       <c r="S4">
-        <v>0.1682402219876897</v>
+        <v>0.004349815378822977</v>
       </c>
       <c r="T4">
-        <v>0.1682402219876897</v>
+        <v>0.004861112796463551</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>4.30900633936153</v>
+        <v>0.1969683333333333</v>
       </c>
       <c r="H5">
-        <v>4.30900633936153</v>
+        <v>0.590905</v>
       </c>
       <c r="I5">
-        <v>0.6655825432895573</v>
+        <v>0.02657338015617136</v>
       </c>
       <c r="J5">
-        <v>0.6655825432895573</v>
+        <v>0.02956785610438461</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.25495216737674</v>
+        <v>77.62766766666668</v>
       </c>
       <c r="N5">
-        <v>4.25495216737674</v>
+        <v>232.883003</v>
       </c>
       <c r="O5">
-        <v>0.01391131790585118</v>
+        <v>0.2325920301377057</v>
       </c>
       <c r="P5">
-        <v>0.01391131790585118</v>
+        <v>0.233607438823602</v>
       </c>
       <c r="Q5">
-        <v>18.33461586290646</v>
+        <v>15.29019232085722</v>
       </c>
       <c r="R5">
-        <v>18.33461586290646</v>
+        <v>137.611730887715</v>
       </c>
       <c r="S5">
-        <v>0.009259130352285986</v>
+        <v>0.006180756438144921</v>
       </c>
       <c r="T5">
-        <v>0.009259130352285986</v>
+        <v>0.006907271136050093</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>2.16503115276501</v>
+        <v>0.1969683333333333</v>
       </c>
       <c r="H6">
-        <v>2.16503115276501</v>
+        <v>0.590905</v>
       </c>
       <c r="I6">
-        <v>0.3344174567104427</v>
+        <v>0.02657338015617136</v>
       </c>
       <c r="J6">
-        <v>0.3344174567104427</v>
+        <v>0.02956785610438461</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>169.690907399947</v>
+        <v>4.352083</v>
       </c>
       <c r="N6">
-        <v>169.690907399947</v>
+        <v>8.704166000000001</v>
       </c>
       <c r="O6">
-        <v>0.5547945231140841</v>
+        <v>0.0130399360269903</v>
       </c>
       <c r="P6">
-        <v>0.5547945231140841</v>
+        <v>0.008731242298328987</v>
       </c>
       <c r="Q6">
-        <v>367.3861008618478</v>
+        <v>0.8572225350383333</v>
       </c>
       <c r="R6">
-        <v>367.3861008618478</v>
+        <v>5.143335210230001</v>
       </c>
       <c r="S6">
-        <v>0.1855329734166949</v>
+        <v>0.0003465151772573681</v>
       </c>
       <c r="T6">
-        <v>0.1855329734166949</v>
+        <v>0.0002581641158895078</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.16503115276501</v>
+        <v>4.963256</v>
       </c>
       <c r="H7">
-        <v>2.16503115276501</v>
+        <v>14.889768</v>
       </c>
       <c r="I7">
-        <v>0.3344174567104427</v>
+        <v>0.6696025004039489</v>
       </c>
       <c r="J7">
-        <v>0.3344174567104427</v>
+        <v>0.7450580341199864</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>54.6034433841246</v>
+        <v>196.8487906666667</v>
       </c>
       <c r="N7">
-        <v>54.6034433841246</v>
+        <v>590.546372</v>
       </c>
       <c r="O7">
-        <v>0.1785227729455335</v>
+        <v>0.5898085209504824</v>
       </c>
       <c r="P7">
-        <v>0.1785227729455335</v>
+        <v>0.5923834015035012</v>
       </c>
       <c r="Q7">
-        <v>118.2181559748702</v>
+        <v>977.0109413690774</v>
       </c>
       <c r="R7">
-        <v>118.2181559748702</v>
+        <v>8793.098472321697</v>
       </c>
       <c r="S7">
-        <v>0.05970113169334115</v>
+        <v>0.3949372603879979</v>
       </c>
       <c r="T7">
-        <v>0.05970113169334115</v>
+        <v>0.4413600125695092</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.16503115276501</v>
+        <v>4.963256</v>
       </c>
       <c r="H8">
-        <v>2.16503115276501</v>
+        <v>14.889768</v>
       </c>
       <c r="I8">
-        <v>0.3344174567104427</v>
+        <v>0.6696025004039489</v>
       </c>
       <c r="J8">
-        <v>0.3344174567104427</v>
+        <v>0.7450580341199864</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>77.3133188485382</v>
+        <v>0.2899643333333333</v>
       </c>
       <c r="N8">
-        <v>77.3133188485382</v>
+        <v>0.869893</v>
       </c>
       <c r="O8">
-        <v>0.2527713860345311</v>
+        <v>0.0008688061226717315</v>
       </c>
       <c r="P8">
-        <v>0.2527713860345311</v>
+        <v>0.0008725990010553907</v>
       </c>
       <c r="Q8">
-        <v>167.3857438307394</v>
+        <v>1.439167217202667</v>
       </c>
       <c r="R8">
-        <v>167.3857438307394</v>
+        <v>12.952504954824</v>
       </c>
       <c r="S8">
-        <v>0.08453116404684141</v>
+        <v>0.0005817547521072513</v>
       </c>
       <c r="T8">
-        <v>0.08453116404684141</v>
+        <v>0.0006501368963013934</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,495 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>4.963256</v>
+      </c>
+      <c r="H9">
+        <v>14.889768</v>
+      </c>
+      <c r="I9">
+        <v>0.6696025004039489</v>
+      </c>
+      <c r="J9">
+        <v>0.7450580341199864</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>54.63182799999999</v>
+      </c>
+      <c r="N9">
+        <v>163.895484</v>
+      </c>
+      <c r="O9">
+        <v>0.1636907067621498</v>
+      </c>
+      <c r="P9">
+        <v>0.1644053183735123</v>
+      </c>
+      <c r="Q9">
+        <v>271.151748111968</v>
+      </c>
+      <c r="R9">
+        <v>2440.365733007712</v>
+      </c>
+      <c r="S9">
+        <v>0.1096077065408251</v>
+      </c>
+      <c r="T9">
+        <v>0.1224915033062396</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>4.963256</v>
+      </c>
+      <c r="H10">
+        <v>14.889768</v>
+      </c>
+      <c r="I10">
+        <v>0.6696025004039489</v>
+      </c>
+      <c r="J10">
+        <v>0.7450580341199864</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>77.62766766666668</v>
+      </c>
+      <c r="N10">
+        <v>232.883003</v>
+      </c>
+      <c r="O10">
+        <v>0.2325920301377057</v>
+      </c>
+      <c r="P10">
+        <v>0.233607438823602</v>
+      </c>
+      <c r="Q10">
+        <v>385.2859873125894</v>
+      </c>
+      <c r="R10">
+        <v>3467.573885813305</v>
+      </c>
+      <c r="S10">
+        <v>0.1557442049542384</v>
+      </c>
+      <c r="T10">
+        <v>0.1740510991257179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>4.963256</v>
+      </c>
+      <c r="H11">
+        <v>14.889768</v>
+      </c>
+      <c r="I11">
+        <v>0.6696025004039489</v>
+      </c>
+      <c r="J11">
+        <v>0.7450580341199864</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>4.352083</v>
+      </c>
+      <c r="N11">
+        <v>8.704166000000001</v>
+      </c>
+      <c r="O11">
+        <v>0.0130399360269903</v>
+      </c>
+      <c r="P11">
+        <v>0.008731242298328987</v>
+      </c>
+      <c r="Q11">
+        <v>21.600502062248</v>
+      </c>
+      <c r="R11">
+        <v>129.603012373488</v>
+      </c>
+      <c r="S11">
+        <v>0.008731573768780239</v>
+      </c>
+      <c r="T11">
+        <v>0.006505282222218267</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>2.252018</v>
+      </c>
+      <c r="H12">
+        <v>4.504036</v>
+      </c>
+      <c r="I12">
+        <v>0.3038241194398798</v>
+      </c>
+      <c r="J12">
+        <v>0.2253741097756289</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>196.8487906666667</v>
+      </c>
+      <c r="N12">
+        <v>590.546372</v>
+      </c>
+      <c r="O12">
+        <v>0.5898085209504824</v>
+      </c>
+      <c r="P12">
+        <v>0.5923834015035012</v>
+      </c>
+      <c r="Q12">
+        <v>443.3070198595653</v>
+      </c>
+      <c r="R12">
+        <v>2659.842119157392</v>
+      </c>
+      <c r="S12">
+        <v>0.1791980545159182</v>
+      </c>
+      <c r="T12">
+        <v>0.1335078817597106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>2.16503115276501</v>
-      </c>
-      <c r="H9">
-        <v>2.16503115276501</v>
-      </c>
-      <c r="I9">
-        <v>0.3344174567104427</v>
-      </c>
-      <c r="J9">
-        <v>0.3344174567104427</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>4.25495216737674</v>
-      </c>
-      <c r="N9">
-        <v>4.25495216737674</v>
-      </c>
-      <c r="O9">
-        <v>0.01391131790585118</v>
-      </c>
-      <c r="P9">
-        <v>0.01391131790585118</v>
-      </c>
-      <c r="Q9">
-        <v>9.212103995895642</v>
-      </c>
-      <c r="R9">
-        <v>9.212103995895642</v>
-      </c>
-      <c r="S9">
-        <v>0.004652187553565192</v>
-      </c>
-      <c r="T9">
-        <v>0.004652187553565192</v>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2.252018</v>
+      </c>
+      <c r="H13">
+        <v>4.504036</v>
+      </c>
+      <c r="I13">
+        <v>0.3038241194398798</v>
+      </c>
+      <c r="J13">
+        <v>0.2253741097756289</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.2899643333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.869893</v>
+      </c>
+      <c r="O13">
+        <v>0.0008688061226717315</v>
+      </c>
+      <c r="P13">
+        <v>0.0008725990010553907</v>
+      </c>
+      <c r="Q13">
+        <v>0.6530048980246667</v>
+      </c>
+      <c r="R13">
+        <v>3.918029388148</v>
+      </c>
+      <c r="S13">
+        <v>0.000263964255184715</v>
+      </c>
+      <c r="T13">
+        <v>0.0001966612230539618</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2.252018</v>
+      </c>
+      <c r="H14">
+        <v>4.504036</v>
+      </c>
+      <c r="I14">
+        <v>0.3038241194398798</v>
+      </c>
+      <c r="J14">
+        <v>0.2253741097756289</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>54.63182799999999</v>
+      </c>
+      <c r="N14">
+        <v>163.895484</v>
+      </c>
+      <c r="O14">
+        <v>0.1636907067621498</v>
+      </c>
+      <c r="P14">
+        <v>0.1644053183735123</v>
+      </c>
+      <c r="Q14">
+        <v>123.031860028904</v>
+      </c>
+      <c r="R14">
+        <v>738.1911601734239</v>
+      </c>
+      <c r="S14">
+        <v>0.04973318484250174</v>
+      </c>
+      <c r="T14">
+        <v>0.03705270227080919</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2.252018</v>
+      </c>
+      <c r="H15">
+        <v>4.504036</v>
+      </c>
+      <c r="I15">
+        <v>0.3038241194398798</v>
+      </c>
+      <c r="J15">
+        <v>0.2253741097756289</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>77.62766766666668</v>
+      </c>
+      <c r="N15">
+        <v>232.883003</v>
+      </c>
+      <c r="O15">
+        <v>0.2325920301377057</v>
+      </c>
+      <c r="P15">
+        <v>0.233607438823602</v>
+      </c>
+      <c r="Q15">
+        <v>174.8189048833514</v>
+      </c>
+      <c r="R15">
+        <v>1048.913429300108</v>
+      </c>
+      <c r="S15">
+        <v>0.07066706874532243</v>
+      </c>
+      <c r="T15">
+        <v>0.052649068561834</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.252018</v>
+      </c>
+      <c r="H16">
+        <v>4.504036</v>
+      </c>
+      <c r="I16">
+        <v>0.3038241194398798</v>
+      </c>
+      <c r="J16">
+        <v>0.2253741097756289</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>4.352083</v>
+      </c>
+      <c r="N16">
+        <v>8.704166000000001</v>
+      </c>
+      <c r="O16">
+        <v>0.0130399360269903</v>
+      </c>
+      <c r="P16">
+        <v>0.008731242298328987</v>
+      </c>
+      <c r="Q16">
+        <v>9.800969253494001</v>
+      </c>
+      <c r="R16">
+        <v>39.203877013976</v>
+      </c>
+      <c r="S16">
+        <v>0.003961847080952693</v>
+      </c>
+      <c r="T16">
+        <v>0.001967795960221212</v>
       </c>
     </row>
   </sheetData>
